--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DAE2B4-0C26-4DD6-AAA2-FD05C730906B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899C9D7-FC2E-4192-84C7-21F081672C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,25 +89,13 @@
     <t>Upfront</t>
   </si>
   <si>
-    <t>One of the top military commanders has been accused of not paying taxes.</t>
-  </si>
-  <si>
-    <t>Military commander, George the Great, has reportedably not paid any taxes since his entry into the military ranks.  While many may know him for his win in the Battle of Greenfield, those from the tax office know him for his over 15 years of tax fraud. Reports from the office say he owes enough to feed the half the Kingdom for a year.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>I haven't worked with Maxim since we were in military training, I trust him.</t>
-  </si>
-  <si>
     <t>The commander is an honourable man, but he has told me himself he likes to stretch the law.</t>
   </si>
   <si>
     <t>I can't release that documentation, but this is not the first time he has been investigated.</t>
-  </si>
-  <si>
-    <t>The military is rife with scam artists</t>
   </si>
   <si>
     <t>He's just not a good businessman.</t>
@@ -120,18 +108,12 @@
 </t>
   </si>
   <si>
-    <t>The tax policies for the military has to be reform.</t>
-  </si>
-  <si>
     <t>I want to gather more evidences to see if there is any other confederates among the ranks as well.</t>
   </si>
   <si>
     <t>The general may have someone among us.</t>
   </si>
   <si>
-    <t>We can reference how other Kingdoms deal with such behaviour.</t>
-  </si>
-  <si>
     <t>It will be bad if the neighbouring Kingdoms know that we are condoning to such behaviour.</t>
   </si>
   <si>
@@ -147,30 +129,15 @@
     <t>Imprison the commander</t>
   </si>
   <si>
-    <t>This will likely cause unrest among the ranks</t>
-  </si>
-  <si>
     <t>These accusations are baseless!</t>
   </si>
   <si>
-    <t>The military will not be happy about close scrutiny</t>
-  </si>
-  <si>
     <t>Finally, I have been saying for years that he's not that great of a commander</t>
   </si>
   <si>
     <t>Make him pay it all back and give it to those that actually provide something for the community, like us farmers.</t>
   </si>
   <si>
-    <t>I'm sure he must have reason for not paying his taxes, are they sure?</t>
-  </si>
-  <si>
-    <t>I only cares if the tax money he evaded is returned to relieve the Kingdom current economy</t>
-  </si>
-  <si>
-    <t>Shutting him behind bars does not help the people living in abysmal conditions.</t>
-  </si>
-  <si>
     <t>I would like to capture the other confederates before imprisoning him.</t>
   </si>
   <si>
@@ -195,36 +162,15 @@
     <t>This is extortion!</t>
   </si>
   <si>
-    <t>This means the money will be returned without much fuss as there are many others who do not pay their taxes.</t>
-  </si>
-  <si>
     <t>I've seen his statement, despite what he says he won't need to pay much.</t>
   </si>
   <si>
-    <t>Perhaps take a little extra too for 'interest'</t>
-  </si>
-  <si>
-    <t>If this is the fairest solution I think its best.</t>
-  </si>
-  <si>
     <t>The tax from his petty income? Forget it.</t>
   </si>
   <si>
-    <t>This is not even a punishment when he should be paying his taxes since 15 years ago!</t>
-  </si>
-  <si>
-    <t>I do not think the general will reflect himself  with such minor punishment.</t>
-  </si>
-  <si>
     <t>The tax may eventually go back to the general if someone is pulling the string.</t>
   </si>
   <si>
-    <t>Not only the current tax, but also the tax he evaded for the past 15 years.</t>
-  </si>
-  <si>
-    <t>How is this convicing to the people when the they have been obediently paying the tax!</t>
-  </si>
-  <si>
     <t>ACTION 3</t>
   </si>
   <si>
@@ -243,18 +189,12 @@
     <t>Perhaps I will try and take the commanders place.</t>
   </si>
   <si>
-    <t>This will only teach the others not to get caught</t>
-  </si>
-  <si>
     <t>That may be a bit harsh, but at least someone else will get the chance to be commander.</t>
   </si>
   <si>
     <t>In my expertise, there is no economic benefits for the Kingdom.</t>
   </si>
   <si>
-    <t>Demoting his rank is not enough! He shoud work to pay back his taxes as well.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This could be a good chance to gain some leads to the other confederates. </t>
   </si>
   <si>
@@ -264,42 +204,21 @@
     <t>A righteous soldier should be promoted to protect the military sovereignty at all cost!</t>
   </si>
   <si>
-    <t>The Kingdom could still fend off invaders even if his rank is different but his skill is still the real deal.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
     <t>Put the commander on trial</t>
   </si>
   <si>
-    <t>We must leave the sentencing for punishment with the courts</t>
-  </si>
-  <si>
     <t>George has many allies, all of the commanders will make the trial miserable.</t>
   </si>
   <si>
-    <t>Such an important case will set a significant precedent</t>
-  </si>
-  <si>
-    <t>The judges owe more taxes than the military commanders and will go easy on him</t>
-  </si>
-  <si>
-    <t>What so he can pay some fancy council to defend him? No I say make him walk around and give us all our share.</t>
-  </si>
-  <si>
     <t>I do like trials. Everyone gets to defend their side of the story. I just don't like the end when they get hung.</t>
   </si>
   <si>
     <t>Holding trials will only be spending more unnecessary resources and money of the Kingdom.</t>
   </si>
   <si>
-    <t>Wasting the people's taxes money just to delay his verdict? No way!</t>
-  </si>
-  <si>
-    <t>We could negeotiate with the general for reducing his sentences if he expose any other confederates.</t>
-  </si>
-  <si>
     <t>I am afraid that someone is already fabricating evidences to proves his innocence.</t>
   </si>
   <si>
@@ -310,6 +229,87 @@
   </si>
   <si>
     <t>BARRACKS</t>
+  </si>
+  <si>
+    <t>The military is rife with scam artists.</t>
+  </si>
+  <si>
+    <t>The military tax policies has to be reform.</t>
+  </si>
+  <si>
+    <t>We can see how other Kingdoms deal with such behaviour.</t>
+  </si>
+  <si>
+    <t>This will likely cause unrest among the ranks.</t>
+  </si>
+  <si>
+    <t>The military will not be happy about close scrutiny.</t>
+  </si>
+  <si>
+    <t>I only cares if he can repay the tax money he evaded to relieve the Kingdom current economy.</t>
+  </si>
+  <si>
+    <t>Shutting him behind bars does not help the people that is living in abysmal conditions.</t>
+  </si>
+  <si>
+    <t>Perhaps take a little extra too for 'interest'.</t>
+  </si>
+  <si>
+    <t>If this is the fairest solution,I think it's the best.</t>
+  </si>
+  <si>
+    <t>I do not think the general will reflect himself with such minor punishment.</t>
+  </si>
+  <si>
+    <t>One of the top military commanders has been accused of not paying tax.</t>
+  </si>
+  <si>
+    <t>Military commander, George the Great, has continuosly being reported for not paying any tax since his entry into the military ranks.  While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the Kingdom for a year.</t>
+  </si>
+  <si>
+    <t>I'm sure he must have reason for not paying his tax, are they sure?</t>
+  </si>
+  <si>
+    <t>This means the money will be returned without much fuss as there are many others who do not pay their tax.</t>
+  </si>
+  <si>
+    <t>This is not even a punishment when he should be paying his tax since 15 years ago!</t>
+  </si>
+  <si>
+    <t>He should not be paid! All the salaries goes towards repaying his evaded tax.</t>
+  </si>
+  <si>
+    <t>How is this convicing to the people when they have been obediently paying the tax!</t>
+  </si>
+  <si>
+    <t>Demoting his rank is not enough! He shoud work to pay back his tax as well.</t>
+  </si>
+  <si>
+    <t>Wasting the people's tax money just to delay his verdict? No way!</t>
+  </si>
+  <si>
+    <t>This will only teach the others not to get caught.</t>
+  </si>
+  <si>
+    <t>Not much difference even though his rank is different but his skill is still the real deal.</t>
+  </si>
+  <si>
+    <t>We must leave the sentencing for punishment with the courts.</t>
+  </si>
+  <si>
+    <t>I haven't worked with George since we were in military training, but I trust him.</t>
+  </si>
+  <si>
+    <t>Such an important case will set a significant precedent.</t>
+  </si>
+  <si>
+    <t>The judges owe more tax than the military commanders and will surely go easy on him.</t>
+  </si>
+  <si>
+    <t>We could negeotiate with the general to reduce his sentences if he expose any other confederates.</t>
+  </si>
+  <si>
+    <t>What if he pay some fancy money to the council to defend him? No! I say we make him walk around and give us all our shares.</t>
   </si>
 </sst>
 </file>
@@ -494,55 +494,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -861,418 +861,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E371D5D-5D35-41E8-9F5D-D5C6C509E3AF}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.75">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" ht="27.6">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="193.2">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.6">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.6">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="220.8">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.6">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="220.8">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.6">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="193.2">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.6">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="248.4">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="199.5">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.5">
-      <c r="A6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="228">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.5">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="228">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="G14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="H14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="I14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="L14" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.5">
-      <c r="A11" s="14" t="s">
+      <c r="M14" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="199.5">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.5">
-      <c r="A13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="242.25">
-      <c r="A14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1280,12 +1286,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899C9D7-FC2E-4192-84C7-21F081672C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA66968-D52F-49A4-9602-84C1DED3BE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
   </bookViews>
@@ -309,7 +309,7 @@
     <t>We could negeotiate with the general to reduce his sentences if he expose any other confederates.</t>
   </si>
   <si>
-    <t>What if he pay some fancy money to the council to defend him? No! I say we make him walk around and give us all our shares.</t>
+    <t>What if he pay some fancy money to the council that will defend him? No! I say we make him walk around and give us all our shares.</t>
   </si>
 </sst>
 </file>
@@ -524,11 +524,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,12 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -862,37 +862,37 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
@@ -937,39 +937,39 @@
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="193.2">
       <c r="A5" s="7" t="s">
@@ -1016,39 +1016,39 @@
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="27.6">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="220.8">
       <c r="A8" s="7" t="s">
@@ -1095,22 +1095,22 @@
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="220.8">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="207">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1155,20 +1155,20 @@
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
@@ -1215,20 +1215,20 @@
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="248.4">
       <c r="A14" s="7" t="s">
@@ -1273,12 +1273,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1286,6 +1280,12 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA66968-D52F-49A4-9602-84C1DED3BE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49562AAA-F1F4-40D9-8DA9-C2029E547673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>MILITARY</t>
   </si>
@@ -310,6 +310,36 @@
   </si>
   <si>
     <t>What if he pay some fancy money to the council that will defend him? No! I say we make him walk around and give us all our shares.</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>It turns out the Military Commander had been selling Kingdom secrets to the neighbouring Kingdom and is given sums of gold from the neighbouring Kingdom, hence avoiding the tax payment.</t>
+  </si>
+  <si>
+    <t>This had sparked the neighbouring Kingdom to launch an attack on your Kingdom in order to save the Commander due to a pact he had made with the neighbouring Kingdom. This angered you and you decide to wage war on the neighbouring Kingdom.</t>
+  </si>
+  <si>
+    <t>The Military Commander was angered by this decision which lead him to betray the Kingdom and join the neighbouring Kingdom. The neighbouring Kingdom saw this as an opportunity to attack your Kingdom as you were without a Military Commander.</t>
+  </si>
+  <si>
+    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. This had made him sell Kingdom secrets to the neighbouring Kingdoms. However, you managed to prevent this from happening and executed him for treason.</t>
+  </si>
+  <si>
+    <t>Putting the Military Commander on trial made him confess that he had been selling Kingdom secrets to the neighbouring Kingdoms. He had been receiving gold for it, hence not paying taxes in order to avoid getting caught.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -524,25 +554,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -859,40 +892,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E371D5D-5D35-41E8-9F5D-D5C6C509E3AF}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
@@ -933,43 +966,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27.6">
+    <row r="3" spans="1:13" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="38.4" customHeight="1">
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="193.2">
       <c r="A5" s="7" t="s">
@@ -1016,39 +1049,39 @@
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="27.6">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="220.8">
       <c r="A8" s="7" t="s">
@@ -1095,20 +1128,20 @@
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="207">
       <c r="A10" s="7" t="s">
@@ -1155,20 +1188,20 @@
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
@@ -1215,20 +1248,20 @@
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="248.4">
       <c r="A14" s="7" t="s">
@@ -1271,8 +1304,114 @@
         <v>63</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="55.2">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.2">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.2">
+      <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2">
+      <c r="A19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1280,12 +1419,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49562AAA-F1F4-40D9-8DA9-C2029E547673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{828238F6-C267-4DF0-864C-89635999C88D}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,248 +98,248 @@
     <t>I don't want to say anything to upset the commander.</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintaning the Kingdom economy is my upmost prority.
+    <t>I want to gather more evidences to see if there is any other confederates among the ranks as well.</t>
+  </si>
+  <si>
+    <t>The general may have someone among us.</t>
+  </si>
+  <si>
+    <t>OUTCOME</t>
+  </si>
+  <si>
+    <t>This is proven to be true. And there is unrest between the military and the townsfolk.</t>
+  </si>
+  <si>
+    <t>ACTION 1</t>
+  </si>
+  <si>
+    <t>These accusations are baseless!</t>
+  </si>
+  <si>
+    <t>Make him pay it all back and give it to those that actually provide something for the community, like us farmers.</t>
+  </si>
+  <si>
+    <t>I would like to capture the other confederates before imprisoning him.</t>
+  </si>
+  <si>
+    <t>Our military power and morale will surely be diminished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should not cause any commotion that will lead us into a war with our reduced military strength. </t>
+  </si>
+  <si>
+    <t>ACTION 2</t>
+  </si>
+  <si>
+    <t>This is extortion!</t>
+  </si>
+  <si>
+    <t>I've seen his statement, despite what he says he won't need to pay much.</t>
+  </si>
+  <si>
+    <t>The tax from his petty income? Forget it.</t>
+  </si>
+  <si>
+    <t>ACTION 3</t>
+  </si>
+  <si>
+    <t>In the past, this action has only caused more trouble.</t>
+  </si>
+  <si>
+    <t>Does that mean I'll get a promotion?</t>
+  </si>
+  <si>
+    <t>From my readings of other commanders, demotion is not serious enough.</t>
+  </si>
+  <si>
+    <t>Perhaps I will try and take the commanders place.</t>
+  </si>
+  <si>
+    <t>That may be a bit harsh, but at least someone else will get the chance to be commander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a good chance to gain some leads to the other confederates. </t>
+  </si>
+  <si>
+    <t>He could still be promoted back to his original position with future achievements and contributions.</t>
+  </si>
+  <si>
+    <t>A righteous soldier should be promoted to protect the military sovereignty at all cost!</t>
+  </si>
+  <si>
+    <t>ACTION 4</t>
+  </si>
+  <si>
+    <t>George has many allies, all of the commanders will make the trial miserable.</t>
+  </si>
+  <si>
+    <t>I do like trials. Everyone gets to defend their side of the story. I just don't like the end when they get hung.</t>
+  </si>
+  <si>
+    <t>I am afraid that someone is already fabricating evidences to proves his innocence.</t>
+  </si>
+  <si>
+    <t>History may be rewritten to cover up such disgrace if the general is deemed guilty.</t>
+  </si>
+  <si>
+    <t>BARRACKS</t>
+  </si>
+  <si>
+    <t>The military is rife with scam artists.</t>
+  </si>
+  <si>
+    <t>The military tax policies has to be reform.</t>
+  </si>
+  <si>
+    <t>This will likely cause unrest among the ranks.</t>
+  </si>
+  <si>
+    <t>The military will not be happy about close scrutiny.</t>
+  </si>
+  <si>
+    <t>Perhaps take a little extra too for 'interest'.</t>
+  </si>
+  <si>
+    <t>I do not think the general will reflect himself with such minor punishment.</t>
+  </si>
+  <si>
+    <t>This is not even a punishment when he should be paying his tax since 15 years ago!</t>
+  </si>
+  <si>
+    <t>Demoting his rank is not enough! He shoud work to pay back his tax as well.</t>
+  </si>
+  <si>
+    <t>Wasting the people's tax money just to delay his verdict? No way!</t>
+  </si>
+  <si>
+    <t>This will only teach the others not to get caught.</t>
+  </si>
+  <si>
+    <t>Not much difference even though his rank is different but his skill is still the real deal.</t>
+  </si>
+  <si>
+    <t>We must leave the sentencing for punishment with the courts.</t>
+  </si>
+  <si>
+    <t>I haven't worked with George since we were in military training, but I trust him.</t>
+  </si>
+  <si>
+    <t>Such an important case will set a significant precedent.</t>
+  </si>
+  <si>
+    <t>The judges owe more tax than the military commanders and will surely go easy on him.</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>One of the top military commanders has been accused of not paying taxes</t>
+  </si>
+  <si>
+    <t>Military commander, George the Great,  has reportedably not paid any taxes since his entry into the military ranks. While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the kingdom for a year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The kingdom's economy is my utmost priority.
 </t>
   </si>
   <si>
-    <t>I want to gather more evidences to see if there is any other confederates among the ranks as well.</t>
-  </si>
-  <si>
-    <t>The general may have someone among us.</t>
-  </si>
-  <si>
-    <t>It will be bad if the neighbouring Kingdoms know that we are condoning to such behaviour.</t>
-  </si>
-  <si>
-    <t>OUTCOME</t>
-  </si>
-  <si>
-    <t>This is proven to be true. And there is unrest between the military and the townsfolk.</t>
-  </si>
-  <si>
-    <t>ACTION 1</t>
-  </si>
-  <si>
-    <t>Imprison the commander</t>
-  </si>
-  <si>
-    <t>These accusations are baseless!</t>
-  </si>
-  <si>
-    <t>Finally, I have been saying for years that he's not that great of a commander</t>
-  </si>
-  <si>
-    <t>Make him pay it all back and give it to those that actually provide something for the community, like us farmers.</t>
-  </si>
-  <si>
-    <t>I would like to capture the other confederates before imprisoning him.</t>
-  </si>
-  <si>
-    <t>Our military power and morale will surely be diminished.</t>
-  </si>
-  <si>
-    <t>This could be a great chance for our neighbouring Kingdoms to declare war against us.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We should not cause any commotion that will lead us into a war with our reduced military strength. </t>
-  </si>
-  <si>
-    <t>ACTION 2</t>
-  </si>
-  <si>
-    <t>Take the tax from his income</t>
-  </si>
-  <si>
-    <t>Some will be disgruntled but it is a less extreme action</t>
-  </si>
-  <si>
-    <t>This is extortion!</t>
-  </si>
-  <si>
-    <t>I've seen his statement, despite what he says he won't need to pay much.</t>
-  </si>
-  <si>
-    <t>The tax from his petty income? Forget it.</t>
-  </si>
-  <si>
-    <t>The tax may eventually go back to the general if someone is pulling the string.</t>
-  </si>
-  <si>
-    <t>ACTION 3</t>
-  </si>
-  <si>
-    <t>Demote the commander</t>
-  </si>
-  <si>
-    <t>In the past, this action has only caused more trouble.</t>
-  </si>
-  <si>
-    <t>Does that mean I'll get a promotion?</t>
-  </si>
-  <si>
-    <t>From my readings of other commanders, demotion is not serious enough.</t>
-  </si>
-  <si>
-    <t>Perhaps I will try and take the commanders place.</t>
-  </si>
-  <si>
-    <t>That may be a bit harsh, but at least someone else will get the chance to be commander.</t>
-  </si>
-  <si>
-    <t>In my expertise, there is no economic benefits for the Kingdom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This could be a good chance to gain some leads to the other confederates. </t>
-  </si>
-  <si>
-    <t>He could still be promoted back to his original position with future achievements and contributions.</t>
-  </si>
-  <si>
-    <t>A righteous soldier should be promoted to protect the military sovereignty at all cost!</t>
-  </si>
-  <si>
-    <t>ACTION 4</t>
-  </si>
-  <si>
-    <t>Put the commander on trial</t>
-  </si>
-  <si>
-    <t>George has many allies, all of the commanders will make the trial miserable.</t>
-  </si>
-  <si>
-    <t>I do like trials. Everyone gets to defend their side of the story. I just don't like the end when they get hung.</t>
-  </si>
-  <si>
-    <t>Holding trials will only be spending more unnecessary resources and money of the Kingdom.</t>
-  </si>
-  <si>
-    <t>I am afraid that someone is already fabricating evidences to proves his innocence.</t>
-  </si>
-  <si>
-    <t>We could hire a foreign judge from the neighbouring Kingdoms for a fair and just trial.</t>
-  </si>
-  <si>
-    <t>History may be rewritten to cover up such disgrace if the general is deemed guilty.</t>
-  </si>
-  <si>
-    <t>BARRACKS</t>
-  </si>
-  <si>
-    <t>The military is rife with scam artists.</t>
-  </si>
-  <si>
-    <t>The military tax policies has to be reform.</t>
-  </si>
-  <si>
-    <t>We can see how other Kingdoms deal with such behaviour.</t>
-  </si>
-  <si>
-    <t>This will likely cause unrest among the ranks.</t>
-  </si>
-  <si>
-    <t>The military will not be happy about close scrutiny.</t>
-  </si>
-  <si>
-    <t>I only cares if he can repay the tax money he evaded to relieve the Kingdom current economy.</t>
-  </si>
-  <si>
-    <t>Shutting him behind bars does not help the people that is living in abysmal conditions.</t>
-  </si>
-  <si>
-    <t>Perhaps take a little extra too for 'interest'.</t>
-  </si>
-  <si>
-    <t>If this is the fairest solution,I think it's the best.</t>
-  </si>
-  <si>
-    <t>I do not think the general will reflect himself with such minor punishment.</t>
-  </si>
-  <si>
-    <t>One of the top military commanders has been accused of not paying tax.</t>
-  </si>
-  <si>
-    <t>Military commander, George the Great, has continuosly being reported for not paying any tax since his entry into the military ranks.  While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the Kingdom for a year.</t>
-  </si>
-  <si>
-    <t>I'm sure he must have reason for not paying his tax, are they sure?</t>
-  </si>
-  <si>
-    <t>This means the money will be returned without much fuss as there are many others who do not pay their tax.</t>
-  </si>
-  <si>
-    <t>This is not even a punishment when he should be paying his tax since 15 years ago!</t>
-  </si>
-  <si>
-    <t>He should not be paid! All the salaries goes towards repaying his evaded tax.</t>
-  </si>
-  <si>
-    <t>How is this convicing to the people when they have been obediently paying the tax!</t>
-  </si>
-  <si>
-    <t>Demoting his rank is not enough! He shoud work to pay back his tax as well.</t>
-  </si>
-  <si>
-    <t>Wasting the people's tax money just to delay his verdict? No way!</t>
-  </si>
-  <si>
-    <t>This will only teach the others not to get caught.</t>
-  </si>
-  <si>
-    <t>Not much difference even though his rank is different but his skill is still the real deal.</t>
-  </si>
-  <si>
-    <t>We must leave the sentencing for punishment with the courts.</t>
-  </si>
-  <si>
-    <t>I haven't worked with George since we were in military training, but I trust him.</t>
-  </si>
-  <si>
-    <t>Such an important case will set a significant precedent.</t>
-  </si>
-  <si>
-    <t>The judges owe more tax than the military commanders and will surely go easy on him.</t>
-  </si>
-  <si>
-    <t>We could negeotiate with the general to reduce his sentences if he expose any other confederates.</t>
-  </si>
-  <si>
-    <t>What if he pay some fancy money to the council that will defend him? No! I say we make him walk around and give us all our shares.</t>
-  </si>
-  <si>
-    <t>EVENT SUMMARY HEADER</t>
-  </si>
-  <si>
-    <t>ACTION 1 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 2 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 3 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>ACTION 4 EVENT SUMMARY</t>
-  </si>
-  <si>
-    <t>It turns out the Military Commander had been selling Kingdom secrets to the neighbouring Kingdom and is given sums of gold from the neighbouring Kingdom, hence avoiding the tax payment.</t>
-  </si>
-  <si>
-    <t>This had sparked the neighbouring Kingdom to launch an attack on your Kingdom in order to save the Commander due to a pact he had made with the neighbouring Kingdom. This angered you and you decide to wage war on the neighbouring Kingdom.</t>
-  </si>
-  <si>
-    <t>The Military Commander was angered by this decision which lead him to betray the Kingdom and join the neighbouring Kingdom. The neighbouring Kingdom saw this as an opportunity to attack your Kingdom as you were without a Military Commander.</t>
-  </si>
-  <si>
-    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. This had made him sell Kingdom secrets to the neighbouring Kingdoms. However, you managed to prevent this from happening and executed him for treason.</t>
-  </si>
-  <si>
-    <t>Putting the Military Commander on trial made him confess that he had been selling Kingdom secrets to the neighbouring Kingdoms. He had been receiving gold for it, hence not paying taxes in order to avoid getting caught.</t>
+    <t>We can see how other kingdoms deal with such behaviour.</t>
+  </si>
+  <si>
+    <t>It will be bad if the neighbouring kingdoms know that we are condoning to such behaviour.</t>
+  </si>
+  <si>
+    <t>Imprison the commander.</t>
+  </si>
+  <si>
+    <t>Finally, I have been saying for years that he's not that great of a commander.</t>
+  </si>
+  <si>
+    <t>I'm sure he must have reasons for not paying his taxes, are they sure?</t>
+  </si>
+  <si>
+    <t>I only care if he can repay the tax money he evaded to relieve the kingdom current economy.</t>
+  </si>
+  <si>
+    <t>Shutting him behind bars does not help the people that are living in abysmal conditions.</t>
+  </si>
+  <si>
+    <t>This could be a great chance for our neighbouring kingdoms to declare war against us.</t>
+  </si>
+  <si>
+    <t>Take the tax from his income.</t>
+  </si>
+  <si>
+    <t>Some will be disgruntled but it is a less extreme action.</t>
+  </si>
+  <si>
+    <t>This means the money will be returned without much fuss as there are many others who do not pay their taxes.</t>
+  </si>
+  <si>
+    <t>If this is the fairest solution, I think it's the best.</t>
+  </si>
+  <si>
+    <t>The tax may eventually go back to the general if someone close to him is pulling the strings.</t>
+  </si>
+  <si>
+    <t>He should not be paid! All his salary should go towards repaying his evaded tax.</t>
+  </si>
+  <si>
+    <t>How is this convincing to the people when they have been obediently paying their taxes!</t>
+  </si>
+  <si>
+    <t>Demote the commander.</t>
+  </si>
+  <si>
+    <t>In my expertise, there is no economic benefits for the kingdom.</t>
+  </si>
+  <si>
+    <t>Put the commander on trial.</t>
+  </si>
+  <si>
+    <t>What so he can pay off the council that will defend him? No! I say we make him walk around and give us all our shares.</t>
+  </si>
+  <si>
+    <t>Holding trials will only be spending more unnecessary resources and money of the kingdom.</t>
+  </si>
+  <si>
+    <t>We could negotiate with the general to reduce his sentences if he exposes any other confederates.</t>
+  </si>
+  <si>
+    <t>We could hire a foreign judge from a neighbouring kingdom for a fair and just trial.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdom has planned an attack on your kingdom in order to save the commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
+  </si>
+  <si>
+    <t>It turns out the Military Commander had been selling kingdom secrets to the neighbouring kingdom and is given sums of gold from the neighbouring kingdom, hence avoiding the tax payment.</t>
+  </si>
+  <si>
+    <t>The Military Commander was angered by this decision which lead him to completely betray the kingdom and join the neighbouring kingdom. The neighbouring Kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
+  </si>
+  <si>
+    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. He had planned to sell the biggest secret of all the neighbouring Kingdoms. However, you managed to prevent this from happening and executed him for treason.</t>
+  </si>
+  <si>
+    <t>Putting the Military Commander on trial made him confess that he had been selling secrets to the neighbouring kingdoms. He had been receiving gold for it, hence not paying taxes in order to avoid getting caught.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -554,11 +548,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,20 +570,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{270A8853-B5CD-4FFB-90D7-85A740BECA8A}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,50 +878,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E371D5D-5D35-41E8-9F5D-D5C6C509E3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.3" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="14"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="14"/>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="41.4">
+    <row r="2" spans="1:13" ht="42.8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -966,12 +960,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" customHeight="1">
+    <row r="3" spans="1:13" ht="34.85" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -989,8 +983,8 @@
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>76</v>
+      <c r="B4" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1004,12 +998,12 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="193.2">
+    <row r="5" spans="1:13" ht="199.7">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>19</v>
@@ -1018,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>21</v>
@@ -1027,30 +1021,30 @@
         <v>22</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.55">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27.6">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1064,12 +1058,12 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6">
+    <row r="7" spans="1:13" ht="28.55" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1083,53 +1077,53 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="220.8">
+    <row r="8" spans="1:13" ht="228.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="L8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="28.55" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27.6">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>39</v>
+      <c r="B9" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1143,53 +1137,53 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="207">
+    <row r="10" spans="1:13" ht="242.5">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.55" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1203,53 +1197,53 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="193.2">
+    <row r="12" spans="1:13" ht="199.7">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27.6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.55" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1263,53 +1257,53 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="248.4">
+    <row r="14" spans="1:13" ht="228.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="J14" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="57.1">
       <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1323,12 +1317,12 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="55.2">
+    <row r="16" spans="1:13" ht="57.1">
       <c r="A16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1342,11 +1336,11 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="55.2">
+    <row r="17" spans="1:13" ht="57.1">
       <c r="A17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="13"/>
@@ -1361,11 +1355,11 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="55.2">
+    <row r="18" spans="1:13" ht="57.1">
       <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="13"/>
@@ -1380,11 +1374,11 @@
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="55.2">
+    <row r="19" spans="1:13" ht="57.1">
       <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="13"/>
@@ -1401,17 +1395,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1419,6 +1402,17 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC7A86-A4D6-418E-8197-E8EF6969DCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -321,25 +319,25 @@
     <t>We could hire a foreign judge from a neighbouring kingdom for a fair and just trial.</t>
   </si>
   <si>
-    <t>The neighbouring kingdom has planned an attack on your kingdom in order to save the commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
-  </si>
-  <si>
-    <t>It turns out the Military Commander had been selling kingdom secrets to the neighbouring kingdom and is given sums of gold from the neighbouring kingdom, hence avoiding the tax payment.</t>
-  </si>
-  <si>
-    <t>The Military Commander was angered by this decision which lead him to completely betray the kingdom and join the neighbouring kingdom. The neighbouring Kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
-  </si>
-  <si>
-    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. He had planned to sell the biggest secret of all the neighbouring Kingdoms. However, you managed to prevent this from happening and executed him for treason.</t>
-  </si>
-  <si>
-    <t>Putting the Military Commander on trial made him confess that he had been selling secrets to the neighbouring kingdoms. He had been receiving gold for it, hence not paying taxes in order to avoid getting caught.</t>
+    <t>The neighbouring kingdom had secretly infiltrated your kingdom in order to save the commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
+  </si>
+  <si>
+    <t>The Military Commander was angered by this decision which made him outright betray the kingdom, joining the neighbouring kingdom. The neighbouring kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
+  </si>
+  <si>
+    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. His intention to sell critical kingdom secrets was intercepted by you. You made the decision to execute him for treason.</t>
+  </si>
+  <si>
+    <t>It turns out that the Military Commander had been selling inside news to the neighbouring kingdom, providing them with information to form an attack plan on your kingdom.</t>
+  </si>
+  <si>
+    <t>Putting the Military Commander on trial made him confess his deeds of selling information to the neighbouring kingdoms. This was deemed as treason and he was ultimately sent for execution.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -548,33 +546,33 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,50 +876,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.3" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="14"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="42.8">
+    <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -960,11 +958,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="34.85" customHeight="1">
+    <row r="3" spans="1:13" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="13"/>
@@ -983,7 +981,7 @@
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="13"/>
@@ -998,7 +996,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="199.7">
+    <row r="5" spans="1:13" ht="193.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1039,11 +1037,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.55">
+    <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="13"/>
@@ -1058,11 +1056,11 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="28.55" customHeight="1">
+    <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="13"/>
@@ -1077,7 +1075,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="228.25">
+    <row r="8" spans="1:13" ht="220.8">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1118,11 +1116,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.55" customHeight="1">
+    <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="13"/>
@@ -1137,7 +1135,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="242.5">
+    <row r="10" spans="1:13" ht="220.8">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1178,11 +1176,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.55" customHeight="1">
+    <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="13"/>
@@ -1197,7 +1195,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="199.7">
+    <row r="12" spans="1:13" ht="193.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1238,11 +1236,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.55" customHeight="1">
+    <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="13"/>
@@ -1257,7 +1255,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="228.25">
+    <row r="14" spans="1:13" ht="220.8">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1298,12 +1296,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="57.1">
+    <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>98</v>
+      <c r="B15" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1317,11 +1315,11 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="57.1">
+    <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="13"/>
@@ -1336,12 +1334,12 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="57.1">
+    <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>99</v>
+      <c r="B17" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1355,12 +1353,12 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="57.1">
+    <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>100</v>
+      <c r="B18" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1374,11 +1372,11 @@
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="57.1">
+    <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="13"/>
@@ -1395,6 +1393,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1402,17 +1411,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FC7A86-A4D6-418E-8197-E8EF6969DCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D9204-9E02-4D90-8488-9AD63B47B7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,24 +84,12 @@
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>The commander is an honourable man, but he has told me himself he likes to stretch the law.</t>
-  </si>
-  <si>
     <t>I can't release that documentation, but this is not the first time he has been investigated.</t>
   </si>
   <si>
     <t>He's just not a good businessman.</t>
   </si>
   <si>
-    <t>I don't want to say anything to upset the commander.</t>
-  </si>
-  <si>
-    <t>I want to gather more evidences to see if there is any other confederates among the ranks as well.</t>
-  </si>
-  <si>
-    <t>The general may have someone among us.</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
@@ -147,48 +135,24 @@
     <t>Does that mean I'll get a promotion?</t>
   </si>
   <si>
-    <t>From my readings of other commanders, demotion is not serious enough.</t>
-  </si>
-  <si>
-    <t>Perhaps I will try and take the commanders place.</t>
-  </si>
-  <si>
     <t>That may be a bit harsh, but at least someone else will get the chance to be commander.</t>
   </si>
   <si>
-    <t xml:space="preserve">This could be a good chance to gain some leads to the other confederates. </t>
-  </si>
-  <si>
     <t>He could still be promoted back to his original position with future achievements and contributions.</t>
   </si>
   <si>
-    <t>A righteous soldier should be promoted to protect the military sovereignty at all cost!</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
-    <t>George has many allies, all of the commanders will make the trial miserable.</t>
-  </si>
-  <si>
     <t>I do like trials. Everyone gets to defend their side of the story. I just don't like the end when they get hung.</t>
   </si>
   <si>
-    <t>I am afraid that someone is already fabricating evidences to proves his innocence.</t>
-  </si>
-  <si>
-    <t>History may be rewritten to cover up such disgrace if the general is deemed guilty.</t>
-  </si>
-  <si>
     <t>BARRACKS</t>
   </si>
   <si>
     <t>The military is rife with scam artists.</t>
   </si>
   <si>
-    <t>The military tax policies has to be reform.</t>
-  </si>
-  <si>
     <t>This will likely cause unrest among the ranks.</t>
   </si>
   <si>
@@ -198,24 +162,12 @@
     <t>Perhaps take a little extra too for 'interest'.</t>
   </si>
   <si>
-    <t>I do not think the general will reflect himself with such minor punishment.</t>
-  </si>
-  <si>
-    <t>This is not even a punishment when he should be paying his tax since 15 years ago!</t>
-  </si>
-  <si>
-    <t>Demoting his rank is not enough! He shoud work to pay back his tax as well.</t>
-  </si>
-  <si>
     <t>Wasting the people's tax money just to delay his verdict? No way!</t>
   </si>
   <si>
     <t>This will only teach the others not to get caught.</t>
   </si>
   <si>
-    <t>Not much difference even though his rank is different but his skill is still the real deal.</t>
-  </si>
-  <si>
     <t>We must leave the sentencing for punishment with the courts.</t>
   </si>
   <si>
@@ -243,95 +195,143 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>One of the top military commanders has been accused of not paying taxes</t>
-  </si>
-  <si>
-    <t>Military commander, George the Great,  has reportedably not paid any taxes since his entry into the military ranks. While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the kingdom for a year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The kingdom's economy is my utmost priority.
+    <t>We can see how other kingdoms deal with such behaviour.</t>
+  </si>
+  <si>
+    <t>Finally, I have been saying for years that he's not that great of a commander.</t>
+  </si>
+  <si>
+    <t>I'm sure he must have reasons for not paying his taxes, are they sure?</t>
+  </si>
+  <si>
+    <t>Shutting him behind bars does not help the people that are living in abysmal conditions.</t>
+  </si>
+  <si>
+    <t>This could be a great chance for our neighbouring kingdoms to declare war against us.</t>
+  </si>
+  <si>
+    <t>Take the tax from his income.</t>
+  </si>
+  <si>
+    <t>Some will be disgruntled but it is a less extreme action.</t>
+  </si>
+  <si>
+    <t>This means the money will be returned without much fuss as there are many others who do not pay their taxes.</t>
+  </si>
+  <si>
+    <t>If this is the fairest solution, I think it's the best.</t>
+  </si>
+  <si>
+    <t>He should not be paid! All his salary should go towards repaying his evaded tax.</t>
+  </si>
+  <si>
+    <t>How is this convincing to the people when they have been obediently paying their taxes!</t>
+  </si>
+  <si>
+    <t>We could hire a foreign judge from a neighbouring kingdom for a fair and just trial.</t>
+  </si>
+  <si>
+    <t>One of the top military commanders has been accused of not paying taxes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kingdom's economy is my utmost priority.
 </t>
   </si>
   <si>
-    <t>We can see how other kingdoms deal with such behaviour.</t>
-  </si>
-  <si>
-    <t>It will be bad if the neighbouring kingdoms know that we are condoning to such behaviour.</t>
-  </si>
-  <si>
-    <t>Imprison the commander.</t>
-  </si>
-  <si>
-    <t>Finally, I have been saying for years that he's not that great of a commander.</t>
-  </si>
-  <si>
-    <t>I'm sure he must have reasons for not paying his taxes, are they sure?</t>
-  </si>
-  <si>
-    <t>I only care if he can repay the tax money he evaded to relieve the kingdom current economy.</t>
-  </si>
-  <si>
-    <t>Shutting him behind bars does not help the people that are living in abysmal conditions.</t>
-  </si>
-  <si>
-    <t>This could be a great chance for our neighbouring kingdoms to declare war against us.</t>
-  </si>
-  <si>
-    <t>Take the tax from his income.</t>
-  </si>
-  <si>
-    <t>Some will be disgruntled but it is a less extreme action.</t>
-  </si>
-  <si>
-    <t>This means the money will be returned without much fuss as there are many others who do not pay their taxes.</t>
-  </si>
-  <si>
-    <t>If this is the fairest solution, I think it's the best.</t>
-  </si>
-  <si>
-    <t>The tax may eventually go back to the general if someone close to him is pulling the strings.</t>
-  </si>
-  <si>
-    <t>He should not be paid! All his salary should go towards repaying his evaded tax.</t>
-  </si>
-  <si>
-    <t>How is this convincing to the people when they have been obediently paying their taxes!</t>
-  </si>
-  <si>
-    <t>Demote the commander.</t>
-  </si>
-  <si>
-    <t>In my expertise, there is no economic benefits for the kingdom.</t>
-  </si>
-  <si>
-    <t>Put the commander on trial.</t>
-  </si>
-  <si>
-    <t>What so he can pay off the council that will defend him? No! I say we make him walk around and give us all our shares.</t>
-  </si>
-  <si>
-    <t>Holding trials will only be spending more unnecessary resources and money of the kingdom.</t>
-  </si>
-  <si>
-    <t>We could negotiate with the general to reduce his sentences if he exposes any other confederates.</t>
-  </si>
-  <si>
-    <t>We could hire a foreign judge from a neighbouring kingdom for a fair and just trial.</t>
-  </si>
-  <si>
-    <t>The neighbouring kingdom had secretly infiltrated your kingdom in order to save the commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
-  </si>
-  <si>
-    <t>The Military Commander was angered by this decision which made him outright betray the kingdom, joining the neighbouring kingdom. The neighbouring kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
-  </si>
-  <si>
-    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. His intention to sell critical kingdom secrets was intercepted by you. You made the decision to execute him for treason.</t>
-  </si>
-  <si>
-    <t>It turns out that the Military Commander had been selling inside news to the neighbouring kingdom, providing them with information to form an attack plan on your kingdom.</t>
-  </si>
-  <si>
-    <t>Putting the Military Commander on trial made him confess his deeds of selling information to the neighbouring kingdoms. This was deemed as treason and he was ultimately sent for execution.</t>
+    <t>The military tax policies has to be reformed.</t>
+  </si>
+  <si>
+    <t>I want to gather more evidence to see if there is any other confederates among the ranks as well.</t>
+  </si>
+  <si>
+    <t>It will be bad if the neighbouring kingdoms know that we are condoning such behaviour.</t>
+  </si>
+  <si>
+    <t>I only care if he can repay the tax money he evaded to relieve the Kingdom's current economy.</t>
+  </si>
+  <si>
+    <t>This is not even a punishment when he should have been paying his taxes since 15 years ago!</t>
+  </si>
+  <si>
+    <t>From my read of other commanders, demotion is not serious enough of a punishment.</t>
+  </si>
+  <si>
+    <t>From my expertise, there are no economic benefits for the Kingdom.</t>
+  </si>
+  <si>
+    <t>Demoting his rank is not enough! He should work to pay back his tax as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a good chance to gain some leads on the other confederates. </t>
+  </si>
+  <si>
+    <t>A righteous soldier should be promoted immediately to protect the military's integrity at all costs!</t>
+  </si>
+  <si>
+    <t>Not much difference even though his rank is different. His skill is still the real deal.</t>
+  </si>
+  <si>
+    <t>What?! So he can pay off the counsel that will defend him? No! I say we make him walk around and give us all our share.</t>
+  </si>
+  <si>
+    <t>Holding trials will only be spending more unnecessary resources and money of the Kingdom.</t>
+  </si>
+  <si>
+    <t>I am afraid that someone is already fabricating evidence to prove his innocence.</t>
+  </si>
+  <si>
+    <t>Military Commander, George the Great, has reportedly not paid any taxes since his entry into the military. While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the Kingdom for a year.</t>
+  </si>
+  <si>
+    <t>The Commander is an honourable man, but he has told me himself he likes to stretch the law.</t>
+  </si>
+  <si>
+    <t>I don't want to say anything to upset the Commander.</t>
+  </si>
+  <si>
+    <t>The Commander may have someone among us.</t>
+  </si>
+  <si>
+    <t>Imprison the Commander.</t>
+  </si>
+  <si>
+    <t>I do not think the Commander will learn from his mistakes with such a minor punishment.</t>
+  </si>
+  <si>
+    <t>The tax may eventually go back to the Commander if someone close to him is pulling the strings.</t>
+  </si>
+  <si>
+    <t>Demote the Commander.</t>
+  </si>
+  <si>
+    <t>Perhaps I will try and take the Commander's place.</t>
+  </si>
+  <si>
+    <t>Put the Commander on trial.</t>
+  </si>
+  <si>
+    <t>George has many allies, all of the other commanders will make the trial miserable.</t>
+  </si>
+  <si>
+    <t>We could negotiate with the Commander to reduce his sentence if he exposes any other confederates.</t>
+  </si>
+  <si>
+    <t>History may be rewritten to cover up such disgrace if the Commander is deemed guilty.</t>
+  </si>
+  <si>
+    <t>It turns out that the Military Commander had been selling secrets to the neighbouring kingdom, providing them with information to form an attack plan against your Kingdom.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdom had secretly infiltrated your Kingdom in order to save the Commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
+  </si>
+  <si>
+    <t>The Military Commander was angered by this decision which made him outright betray the Kingdom, joining the neighbouring kingdom. The neighbouring kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
+  </si>
+  <si>
+    <t>A sense of anger and betrayal was felt by the Military Commander due to this decision. His intention to sell critical Kingdom secrets was intercepted by you. You made the decision to execute him for treason.</t>
+  </si>
+  <si>
+    <t>Putting the Military Commander on trial made him confess his deeds of selling information to the neighbouring kingdom. This was deemed as treason and he was ultimately sent to execution.</t>
   </si>
 </sst>
 </file>
@@ -546,11 +546,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,15 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,35 +886,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="14"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="14"/>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="14"/>
@@ -960,10 +960,10 @@
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -981,8 +981,8 @@
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>73</v>
+      <c r="B4" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1001,48 +1001,48 @@
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1080,48 +1080,48 @@
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1140,48 +1140,48 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1195,53 +1195,53 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="193.2">
+    <row r="12" spans="1:13" ht="220.8">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1260,48 +1260,48 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>95</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="L14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1374,9 +1374,9 @@
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="13"/>
@@ -1393,17 +1393,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1411,6 +1400,17 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/TaxEvasion.xlsx
+++ b/Stories/TaxEvasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D9204-9E02-4D90-8488-9AD63B47B7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F090C8F0-C62A-4D22-8B1C-C9A7259C18E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Our military power and morale will surely be diminished.</t>
   </si>
   <si>
-    <t xml:space="preserve">We should not cause any commotion that will lead us into a war with our reduced military strength. </t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>If this is the fairest solution, I think it's the best.</t>
-  </si>
-  <si>
-    <t>He should not be paid! All his salary should go towards repaying his evaded tax.</t>
   </si>
   <si>
     <t>How is this convincing to the people when they have been obediently paying their taxes!</t>
@@ -238,21 +232,12 @@
 </t>
   </si>
   <si>
-    <t>The military tax policies has to be reformed.</t>
-  </si>
-  <si>
-    <t>I want to gather more evidence to see if there is any other confederates among the ranks as well.</t>
-  </si>
-  <si>
     <t>It will be bad if the neighbouring kingdoms know that we are condoning such behaviour.</t>
   </si>
   <si>
     <t>I only care if he can repay the tax money he evaded to relieve the Kingdom's current economy.</t>
   </si>
   <si>
-    <t>This is not even a punishment when he should have been paying his taxes since 15 years ago!</t>
-  </si>
-  <si>
     <t>From my read of other commanders, demotion is not serious enough of a punishment.</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
     <t>I am afraid that someone is already fabricating evidence to prove his innocence.</t>
   </si>
   <si>
-    <t>Military Commander, George the Great, has reportedly not paid any taxes since his entry into the military. While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has been notorious to the tax office. Reports from the office say he owes enough to feed at least half of the Kingdom for a year.</t>
-  </si>
-  <si>
     <t>The Commander is an honourable man, but he has told me himself he likes to stretch the law.</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
     <t>It turns out that the Military Commander had been selling secrets to the neighbouring kingdom, providing them with information to form an attack plan against your Kingdom.</t>
   </si>
   <si>
-    <t>The neighbouring kingdom had secretly infiltrated your Kingdom in order to save the Commander due to a pact he made with them. This angered you and you decide to wage war on the neighbouring kingdom.</t>
-  </si>
-  <si>
     <t>The Military Commander was angered by this decision which made him outright betray the Kingdom, joining the neighbouring kingdom. The neighbouring kingdom saw this as an opportunity to attack while you were without a Military Commander.</t>
   </si>
   <si>
@@ -332,6 +311,27 @@
   </si>
   <si>
     <t>Putting the Military Commander on trial made him confess his deeds of selling information to the neighbouring kingdom. This was deemed as treason and he was ultimately sent to execution.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdom had secretly infiltrated your Kingdom in order to save the Commander due to a deal he made with them. This angered you and you decided to wage war on the neighbouring kingdom.</t>
+  </si>
+  <si>
+    <t>This is not even a punishment! He should have been paying his taxes since 15 years ago!</t>
+  </si>
+  <si>
+    <t>He should not be paid at all! All his salary should go towards repaying his evaded tax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should not cause any commotion that will lead us into a war with reduced military strength. </t>
+  </si>
+  <si>
+    <t>The military tax policies have to be reformed.</t>
+  </si>
+  <si>
+    <t>I want to gather more evidence to see if there are any other confederates among the ranks as well.</t>
+  </si>
+  <si>
+    <t>Military Commander, George the Great, has reportedly not paid any taxes since his entry into the military. While many may know him for his win in the Battle of Greenfield, his 15 years of tax fraud has made him notorious to the tax office. Reports from the office say he owes enough to feed at least half the Kingdom for a year.</t>
   </si>
 </sst>
 </file>
@@ -546,28 +546,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,35 +886,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="14"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="14"/>
@@ -960,10 +960,10 @@
     </row>
     <row r="3" spans="1:13" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -981,8 +981,8 @@
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>84</v>
+      <c r="B4" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1001,47 +1001,47 @@
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.6">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="13"/>
@@ -1060,8 +1060,8 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>88</v>
+      <c r="B7" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1080,28 +1080,28 @@
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>26</v>
@@ -1110,18 +1110,18 @@
         <v>27</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1140,48 +1140,48 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1200,48 +1200,48 @@
         <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="H12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1260,48 +1260,48 @@
         <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>98</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>99</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1393,6 +1393,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B3:M3"/>
@@ -1400,17 +1411,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
